--- a/data/melon_song_data/group_artist_df.xlsx
+++ b/data/melon_song_data/group_artist_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1629"/>
+  <dimension ref="A1:C1653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18353,6 +18353,270 @@
         <v>2633362</v>
       </c>
     </row>
+    <row r="1630">
+      <c r="A1630" s="1" t="n">
+        <v>1628</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>104369</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>52282</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="1" t="n">
+        <v>1629</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>104369</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>52290</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="1" t="n">
+        <v>1630</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>104369</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>52291</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="1" t="n">
+        <v>1631</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>104369</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>29719</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="1" t="n">
+        <v>1632</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>2736779</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>2112526</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="1" t="n">
+        <v>1633</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>2736779</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>967268</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="1" t="n">
+        <v>1634</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>2736779</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>2643836</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="1" t="n">
+        <v>1635</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>2736779</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>2642065</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="1" t="n">
+        <v>1636</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>100757</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="1" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>100757</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="1" t="n">
+        <v>1638</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>100757</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>261071</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="1" t="n">
+        <v>1639</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>106248</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>13136</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="1" t="n">
+        <v>1640</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>106248</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="1" t="n">
+        <v>1641</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>100909</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>20236</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="1" t="n">
+        <v>1642</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>100909</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>27281</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="1" t="n">
+        <v>1643</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>100909</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>48278</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="1" t="n">
+        <v>1644</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>100909</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>28330</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="1" t="n">
+        <v>1645</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>404720</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>47538</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="1" t="n">
+        <v>1646</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>404720</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>675032</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="1" t="n">
+        <v>1647</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>404720</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>676911</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="1" t="n">
+        <v>1648</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>493280</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>606302</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="1" t="n">
+        <v>1649</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>493280</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>673646</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="1" t="n">
+        <v>1650</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>493280</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>673649</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="1" t="n">
+        <v>1651</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>493280</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>636852</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
